--- a/data/fomc_data.xlsx
+++ b/data/fomc_data.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackkidney/Documents/fedwatch/fedtool/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6626DC3-CA77-7E4D-9FA6-F9575645CF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06C555D-007C-1547-8A2E-24CB65359315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="82">
   <si>
     <t>Time</t>
   </si>
@@ -260,6 +273,12 @@
   </si>
   <si>
     <t>FOMCDate</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Surprise</t>
   </si>
 </sst>
 </file>
@@ -269,7 +288,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +301,13 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -316,10 +342,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -330,9 +357,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,16 +661,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E286"/>
+  <dimension ref="A1:G286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -657,8 +689,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45644</v>
       </c>
@@ -669,7 +707,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45602</v>
       </c>
@@ -680,7 +718,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45560</v>
       </c>
@@ -691,7 +729,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45504</v>
       </c>
@@ -702,7 +740,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45462</v>
       </c>
@@ -713,7 +751,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45413</v>
       </c>
@@ -724,7 +762,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45371</v>
       </c>
@@ -735,7 +773,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45322</v>
       </c>
@@ -743,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45273</v>
       </c>
@@ -751,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45231</v>
       </c>
@@ -759,7 +797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45189</v>
       </c>
@@ -767,7 +805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45133</v>
       </c>
@@ -775,7 +813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45091</v>
       </c>
@@ -783,7 +821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45049</v>
       </c>
@@ -791,7 +829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45007</v>
       </c>
@@ -799,7 +837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44958</v>
       </c>
@@ -815,8 +853,16 @@
       <c r="E17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="4">
+        <f>C17-E17</f>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G17" s="4">
+        <f>C17-D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44909</v>
       </c>
@@ -832,8 +878,16 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="4">
+        <f t="shared" ref="F18:F81" si="0">C18-E18</f>
+        <v>4.9999999999999975E-3</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" ref="G18:G81" si="1">C18-D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44867</v>
       </c>
@@ -849,8 +903,16 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44825</v>
       </c>
@@ -866,8 +928,16 @@
       <c r="E20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44769</v>
       </c>
@@ -883,8 +953,16 @@
       <c r="E21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44727</v>
       </c>
@@ -900,8 +978,16 @@
       <c r="E22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>7.5000000000000015E-3</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44685</v>
       </c>
@@ -917,8 +1003,16 @@
       <c r="E23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44636</v>
       </c>
@@ -934,8 +1028,16 @@
       <c r="E24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44587</v>
       </c>
@@ -951,8 +1053,16 @@
       <c r="E25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44545</v>
       </c>
@@ -968,8 +1078,16 @@
       <c r="E26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44503</v>
       </c>
@@ -985,8 +1103,16 @@
       <c r="E27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44461</v>
       </c>
@@ -1002,8 +1128,16 @@
       <c r="E28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44405</v>
       </c>
@@ -1019,8 +1153,16 @@
       <c r="E29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44363</v>
       </c>
@@ -1036,8 +1178,16 @@
       <c r="E30" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44314</v>
       </c>
@@ -1053,8 +1203,16 @@
       <c r="E31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44272</v>
       </c>
@@ -1070,8 +1228,16 @@
       <c r="E32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44223</v>
       </c>
@@ -1087,8 +1253,16 @@
       <c r="E33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44181</v>
       </c>
@@ -1104,8 +1278,16 @@
       <c r="E34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44140</v>
       </c>
@@ -1121,8 +1303,16 @@
       <c r="E35" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44090</v>
       </c>
@@ -1138,8 +1328,16 @@
       <c r="E36" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44041</v>
       </c>
@@ -1155,8 +1353,16 @@
       <c r="E37" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43992</v>
       </c>
@@ -1172,8 +1378,16 @@
       <c r="E38" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43950</v>
       </c>
@@ -1189,8 +1403,16 @@
       <c r="E39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43905</v>
       </c>
@@ -1203,8 +1425,16 @@
       <c r="E40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.01</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43893</v>
       </c>
@@ -1217,8 +1447,16 @@
       <c r="E41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.000000000000001E-3</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43859</v>
       </c>
@@ -1234,8 +1472,16 @@
       <c r="E42" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43810</v>
       </c>
@@ -1251,8 +1497,16 @@
       <c r="E43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43768</v>
       </c>
@@ -1268,8 +1522,16 @@
       <c r="E44" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.4999999999999988E-3</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43726</v>
       </c>
@@ -1285,8 +1547,16 @@
       <c r="E45" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.4999999999999988E-3</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43677</v>
       </c>
@@ -1302,8 +1572,16 @@
       <c r="E46" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43635</v>
       </c>
@@ -1319,8 +1597,16 @@
       <c r="E47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43586</v>
       </c>
@@ -1336,8 +1622,16 @@
       <c r="E48" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43544</v>
       </c>
@@ -1353,8 +1647,16 @@
       <c r="E49" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43495</v>
       </c>
@@ -1370,8 +1672,16 @@
       <c r="E50" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43453</v>
       </c>
@@ -1387,8 +1697,16 @@
       <c r="E51" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43412</v>
       </c>
@@ -1404,8 +1722,16 @@
       <c r="E52" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43369</v>
       </c>
@@ -1421,8 +1747,16 @@
       <c r="E53" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999988E-3</v>
+      </c>
+      <c r="G53" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43313</v>
       </c>
@@ -1438,8 +1772,16 @@
       <c r="E54" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43264</v>
       </c>
@@ -1455,8 +1797,16 @@
       <c r="E55" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999988E-3</v>
+      </c>
+      <c r="G55" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43222</v>
       </c>
@@ -1472,8 +1822,16 @@
       <c r="E56" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43180</v>
       </c>
@@ -1489,8 +1847,16 @@
       <c r="E57" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43131</v>
       </c>
@@ -1506,8 +1872,16 @@
       <c r="E58" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43082</v>
       </c>
@@ -1523,8 +1897,16 @@
       <c r="E59" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999988E-3</v>
+      </c>
+      <c r="G59" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43040</v>
       </c>
@@ -1540,8 +1922,16 @@
       <c r="E60" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>42998</v>
       </c>
@@ -1557,8 +1947,16 @@
       <c r="E61" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>42942</v>
       </c>
@@ -1574,8 +1972,16 @@
       <c r="E62" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>42900</v>
       </c>
@@ -1591,8 +1997,16 @@
       <c r="E63" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="G63" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>42858</v>
       </c>
@@ -1608,8 +2022,16 @@
       <c r="E64" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>42809</v>
       </c>
@@ -1625,8 +2047,16 @@
       <c r="E65" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="G65" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>42767</v>
       </c>
@@ -1642,8 +2072,16 @@
       <c r="E66" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>42718</v>
       </c>
@@ -1659,8 +2097,16 @@
       <c r="E67" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999996E-3</v>
+      </c>
+      <c r="G67" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>42676</v>
       </c>
@@ -1676,8 +2122,16 @@
       <c r="E68" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>42634</v>
       </c>
@@ -1693,8 +2147,16 @@
       <c r="E69" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>42578</v>
       </c>
@@ -1710,8 +2172,16 @@
       <c r="E70" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>42536</v>
       </c>
@@ -1727,8 +2197,16 @@
       <c r="E71" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>42487</v>
       </c>
@@ -1744,8 +2222,16 @@
       <c r="E72" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>42445</v>
       </c>
@@ -1761,8 +2247,16 @@
       <c r="E73" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>42396</v>
       </c>
@@ -1778,8 +2272,16 @@
       <c r="E74" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>42354</v>
       </c>
@@ -1795,8 +2297,16 @@
       <c r="E75" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G75" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>42305</v>
       </c>
@@ -1812,8 +2322,16 @@
       <c r="E76" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>42264</v>
       </c>
@@ -1829,8 +2347,16 @@
       <c r="E77" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>42214</v>
       </c>
@@ -1846,8 +2372,16 @@
       <c r="E78" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>42172</v>
       </c>
@@ -1863,8 +2397,16 @@
       <c r="E79" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>42123</v>
       </c>
@@ -1880,8 +2422,16 @@
       <c r="E80" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>42081</v>
       </c>
@@ -1897,8 +2447,16 @@
       <c r="E81" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>42032</v>
       </c>
@@ -1914,8 +2472,16 @@
       <c r="E82" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="4">
+        <f t="shared" ref="F82:F145" si="2">C82-E82</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="4">
+        <f t="shared" ref="G82:G145" si="3">C82-D82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>41990</v>
       </c>
@@ -1931,8 +2497,16 @@
       <c r="E83" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>41941</v>
       </c>
@@ -1948,8 +2522,16 @@
       <c r="E84" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>41899</v>
       </c>
@@ -1965,8 +2547,16 @@
       <c r="E85" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>41850</v>
       </c>
@@ -1982,8 +2572,16 @@
       <c r="E86" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>41808</v>
       </c>
@@ -1999,8 +2597,16 @@
       <c r="E87" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>41759</v>
       </c>
@@ -2016,8 +2622,16 @@
       <c r="E88" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>41717</v>
       </c>
@@ -2033,8 +2647,16 @@
       <c r="E89" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>41668</v>
       </c>
@@ -2050,8 +2672,16 @@
       <c r="E90" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>41626</v>
       </c>
@@ -2067,8 +2697,16 @@
       <c r="E91" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>41577</v>
       </c>
@@ -2084,8 +2722,16 @@
       <c r="E92" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>41535</v>
       </c>
@@ -2101,8 +2747,16 @@
       <c r="E93" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>41486</v>
       </c>
@@ -2118,8 +2772,16 @@
       <c r="E94" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>41444</v>
       </c>
@@ -2135,8 +2797,16 @@
       <c r="E95" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>41395</v>
       </c>
@@ -2152,8 +2822,16 @@
       <c r="E96" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>41353</v>
       </c>
@@ -2169,8 +2847,16 @@
       <c r="E97" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>41304</v>
       </c>
@@ -2186,8 +2872,16 @@
       <c r="E98" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>41255</v>
       </c>
@@ -2203,8 +2897,16 @@
       <c r="E99" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>41206</v>
       </c>
@@ -2220,8 +2922,16 @@
       <c r="E100" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>41165</v>
       </c>
@@ -2237,8 +2947,16 @@
       <c r="E101" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>41122</v>
       </c>
@@ -2254,8 +2972,16 @@
       <c r="E102" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>41080</v>
       </c>
@@ -2271,8 +2997,16 @@
       <c r="E103" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>41024</v>
       </c>
@@ -2288,8 +3022,16 @@
       <c r="E104" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>40981</v>
       </c>
@@ -2305,8 +3047,16 @@
       <c r="E105" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>40933</v>
       </c>
@@ -2322,8 +3072,16 @@
       <c r="E106" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>40890</v>
       </c>
@@ -2339,8 +3097,16 @@
       <c r="E107" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>40849</v>
       </c>
@@ -2356,8 +3122,16 @@
       <c r="E108" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>40807</v>
       </c>
@@ -2373,8 +3147,16 @@
       <c r="E109" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>40764</v>
       </c>
@@ -2390,8 +3172,16 @@
       <c r="E110" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>40716</v>
       </c>
@@ -2407,8 +3197,16 @@
       <c r="E111" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>40660</v>
       </c>
@@ -2424,8 +3222,16 @@
       <c r="E112" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>40617</v>
       </c>
@@ -2441,8 +3247,16 @@
       <c r="E113" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>40569</v>
       </c>
@@ -2458,8 +3272,16 @@
       <c r="E114" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>40526</v>
       </c>
@@ -2475,8 +3297,16 @@
       <c r="E115" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>40485</v>
       </c>
@@ -2492,8 +3322,16 @@
       <c r="E116" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>40442</v>
       </c>
@@ -2509,8 +3347,16 @@
       <c r="E117" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>40400</v>
       </c>
@@ -2526,8 +3372,16 @@
       <c r="E118" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>40352</v>
       </c>
@@ -2543,8 +3397,16 @@
       <c r="E119" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>40296</v>
       </c>
@@ -2560,8 +3422,16 @@
       <c r="E120" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>40253</v>
       </c>
@@ -2577,8 +3447,16 @@
       <c r="E121" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>40205</v>
       </c>
@@ -2594,8 +3472,16 @@
       <c r="E122" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>40163</v>
       </c>
@@ -2611,8 +3497,16 @@
       <c r="E123" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>40121</v>
       </c>
@@ -2628,8 +3522,16 @@
       <c r="E124" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>40079</v>
       </c>
@@ -2645,8 +3547,16 @@
       <c r="E125" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>40037</v>
       </c>
@@ -2662,8 +3572,16 @@
       <c r="E126" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>39988</v>
       </c>
@@ -2679,8 +3597,16 @@
       <c r="E127" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>39932</v>
       </c>
@@ -2696,8 +3622,16 @@
       <c r="E128" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>39890</v>
       </c>
@@ -2713,8 +3647,16 @@
       <c r="E129" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>39841</v>
       </c>
@@ -2730,8 +3672,16 @@
       <c r="E130" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>39798</v>
       </c>
@@ -2747,8 +3697,16 @@
       <c r="E131" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" s="4">
+        <f t="shared" si="2"/>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="G131" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>39750</v>
       </c>
@@ -2764,8 +3722,16 @@
       <c r="E132" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.9999999999999992E-3</v>
+      </c>
+      <c r="G132" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>39729</v>
       </c>
@@ -2778,8 +3744,13 @@
       <c r="E133" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.000000000000001E-3</v>
+      </c>
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>39707</v>
       </c>
@@ -2795,8 +3766,16 @@
       <c r="E134" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G134" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>39665</v>
       </c>
@@ -2809,8 +3788,13 @@
       <c r="E135" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>39624</v>
       </c>
@@ -2826,8 +3810,16 @@
       <c r="E136" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>39568</v>
       </c>
@@ -2843,8 +3835,16 @@
       <c r="E137" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.4999999999999988E-3</v>
+      </c>
+      <c r="G137" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>39525</v>
       </c>
@@ -2860,8 +3860,16 @@
       <c r="E138" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" s="4">
+        <f t="shared" si="2"/>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="G138" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>39477</v>
       </c>
@@ -2874,8 +3882,13 @@
       <c r="E139" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>39469</v>
       </c>
@@ -2888,8 +3901,13 @@
       <c r="E140" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" s="4">
+        <f t="shared" si="2"/>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="G140" s="4"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>39427</v>
       </c>
@@ -2902,8 +3920,13 @@
       <c r="E141" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.4999999999999953E-3</v>
+      </c>
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>39386</v>
       </c>
@@ -2916,8 +3939,13 @@
       <c r="E142" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G142" s="4"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>39343</v>
       </c>
@@ -2930,8 +3958,13 @@
       <c r="E143" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.9999999999999975E-3</v>
+      </c>
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>38897</v>
       </c>
@@ -2944,8 +3977,13 @@
       <c r="E144" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4999999999999953E-3</v>
+      </c>
+      <c r="G144" s="4"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>38847</v>
       </c>
@@ -2958,8 +3996,13 @@
       <c r="E145" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>38804</v>
       </c>
@@ -2972,8 +4015,13 @@
       <c r="E146" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" s="4">
+        <f t="shared" ref="F146:F209" si="4">C146-E146</f>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G146" s="4"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>38748</v>
       </c>
@@ -2986,8 +4034,13 @@
       <c r="E147" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4999999999999953E-3</v>
+      </c>
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>38699</v>
       </c>
@@ -3000,8 +4053,13 @@
       <c r="E148" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>38657</v>
       </c>
@@ -3014,8 +4072,13 @@
       <c r="E149" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>38615</v>
       </c>
@@ -3028,8 +4091,13 @@
       <c r="E150" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4999999999999953E-3</v>
+      </c>
+      <c r="G150" s="4"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>38573</v>
       </c>
@@ -3042,8 +4110,13 @@
       <c r="E151" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G151" s="4"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>38533</v>
       </c>
@@ -3056,8 +4129,13 @@
       <c r="E152" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G152" s="4"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>38475</v>
       </c>
@@ -3070,8 +4148,13 @@
       <c r="E153" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4999999999999988E-3</v>
+      </c>
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>38433</v>
       </c>
@@ -3084,8 +4167,13 @@
       <c r="E154" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4999999999999988E-3</v>
+      </c>
+      <c r="G154" s="4"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>38385</v>
       </c>
@@ -3098,8 +4186,13 @@
       <c r="E155" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G155" s="4"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>38335</v>
       </c>
@@ -3112,8 +4205,13 @@
       <c r="E156" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4999999999999988E-3</v>
+      </c>
+      <c r="G156" s="4"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>38301</v>
       </c>
@@ -3126,8 +4224,13 @@
       <c r="E157" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4999999999999988E-3</v>
+      </c>
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>38251</v>
       </c>
@@ -3140,8 +4243,13 @@
       <c r="E158" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G158" s="4"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>38209</v>
       </c>
@@ -3154,8 +4262,13 @@
       <c r="E159" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4999999999999988E-3</v>
+      </c>
+      <c r="G159" s="4"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>38168</v>
       </c>
@@ -3168,8 +4281,13 @@
       <c r="E160" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>37797</v>
       </c>
@@ -3182,8 +4300,13 @@
       <c r="E161" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000005E-3</v>
+      </c>
+      <c r="G161" s="4"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>37566</v>
       </c>
@@ -3196,8 +4319,13 @@
       <c r="E162" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162" s="4">
+        <f t="shared" si="4"/>
+        <v>-5.000000000000001E-3</v>
+      </c>
+      <c r="G162" s="4"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>37236</v>
       </c>
@@ -3210,8 +4338,13 @@
       <c r="E163" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.4999999999999988E-3</v>
+      </c>
+      <c r="G163" s="4"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>37201</v>
       </c>
@@ -3224,8 +4357,13 @@
       <c r="E164" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164" s="4">
+        <f t="shared" si="4"/>
+        <v>-5.000000000000001E-3</v>
+      </c>
+      <c r="G164" s="4"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>37166</v>
       </c>
@@ -3238,8 +4376,13 @@
       <c r="E165" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.9999999999999975E-3</v>
+      </c>
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>37151</v>
       </c>
@@ -3252,8 +4395,13 @@
       <c r="E166" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166" s="4">
+        <f t="shared" si="4"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="G166" s="4"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>37124</v>
       </c>
@@ -3266,8 +4414,13 @@
       <c r="E167" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.4999999999999953E-3</v>
+      </c>
+      <c r="G167" s="4"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>37069</v>
       </c>
@@ -3280,8 +4433,13 @@
       <c r="E168" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G168" s="4"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>37026</v>
       </c>
@@ -3294,8 +4452,13 @@
       <c r="E169" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.9999999999999975E-3</v>
+      </c>
+      <c r="G169" s="4"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>36999</v>
       </c>
@@ -3308,8 +4471,13 @@
       <c r="E170" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170" s="4">
+        <f t="shared" si="4"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="G170" s="4"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>36970</v>
       </c>
@@ -3322,8 +4490,13 @@
       <c r="E171" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.9999999999999975E-3</v>
+      </c>
+      <c r="G171" s="4"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>36922</v>
       </c>
@@ -3336,8 +4509,13 @@
       <c r="E172" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.9999999999999975E-3</v>
+      </c>
+      <c r="G172" s="4"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>36894</v>
       </c>
@@ -3350,8 +4528,13 @@
       <c r="E173" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173" s="4">
+        <f t="shared" si="4"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="G173" s="4"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>36662</v>
       </c>
@@ -3364,8 +4547,13 @@
       <c r="E174" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="G174" s="4"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>36606</v>
       </c>
@@ -3378,8 +4566,13 @@
       <c r="E175" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4999999999999953E-3</v>
+      </c>
+      <c r="G175" s="4"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>36558</v>
       </c>
@@ -3392,8 +4585,13 @@
       <c r="E176" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F176" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G176" s="4"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>36480</v>
       </c>
@@ -3406,8 +4604,13 @@
       <c r="E177" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F177" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G177" s="4"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>36396</v>
       </c>
@@ -3420,8 +4623,13 @@
       <c r="E178" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F178" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4999999999999953E-3</v>
+      </c>
+      <c r="G178" s="4"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>36341</v>
       </c>
@@ -3434,8 +4642,13 @@
       <c r="E179" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F179" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G179" s="4"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>36116</v>
       </c>
@@ -3448,8 +4661,13 @@
       <c r="E180" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F180" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G180" s="4"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>36083</v>
       </c>
@@ -3462,8 +4680,13 @@
       <c r="E181" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F181" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.4999999999999953E-3</v>
+      </c>
+      <c r="G181" s="4"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>36067</v>
       </c>
@@ -3476,8 +4699,13 @@
       <c r="E182" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F182" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G182" s="4"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>35514</v>
       </c>
@@ -3490,8 +4718,13 @@
       <c r="E183" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F183" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G183" s="4"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>35095</v>
       </c>
@@ -3504,8 +4737,13 @@
       <c r="E184" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F184" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G184" s="4"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>35052</v>
       </c>
@@ -3518,8 +4756,13 @@
       <c r="E185" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F185" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G185" s="4"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>34886</v>
       </c>
@@ -3532,8 +4775,13 @@
       <c r="E186" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F186" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.4999999999999953E-3</v>
+      </c>
+      <c r="G186" s="4"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>34731</v>
       </c>
@@ -3546,8 +4794,13 @@
       <c r="E187" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F187" s="4">
+        <f t="shared" si="4"/>
+        <v>4.9999999999999975E-3</v>
+      </c>
+      <c r="G187" s="4"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>34653</v>
       </c>
@@ -3560,8 +4813,13 @@
       <c r="E188" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F188" s="4">
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G188" s="4"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>34562</v>
       </c>
@@ -3574,8 +4832,13 @@
       <c r="E189" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F189" s="4">
+        <f t="shared" si="4"/>
+        <v>4.9999999999999975E-3</v>
+      </c>
+      <c r="G189" s="4"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>34471</v>
       </c>
@@ -3588,8 +4851,13 @@
       <c r="E190" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F190" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="G190" s="4"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>34442</v>
       </c>
@@ -3602,8 +4870,13 @@
       <c r="E191" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F191" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4999999999999953E-3</v>
+      </c>
+      <c r="G191" s="4"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>34415</v>
       </c>
@@ -3616,8 +4889,13 @@
       <c r="E192" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F192" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G192" s="4"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>34369</v>
       </c>
@@ -3630,8 +4908,13 @@
       <c r="E193" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F193" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G193" s="4"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>33851</v>
       </c>
@@ -3644,8 +4927,13 @@
       <c r="E194" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G194" s="4"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>33787</v>
       </c>
@@ -3658,8 +4946,13 @@
       <c r="E195" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F195" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.9999999999999975E-3</v>
+      </c>
+      <c r="G195" s="4"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>33703</v>
       </c>
@@ -3672,8 +4965,13 @@
       <c r="E196" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F196" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G196" s="4"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>33592</v>
       </c>
@@ -3686,8 +4984,13 @@
       <c r="E197" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F197" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.9999999999999975E-3</v>
+      </c>
+      <c r="G197" s="4"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>33578</v>
       </c>
@@ -3700,8 +5003,13 @@
       <c r="E198" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>33548</v>
       </c>
@@ -3714,8 +5022,13 @@
       <c r="E199" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F199" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>33542</v>
       </c>
@@ -3728,8 +5041,13 @@
       <c r="E200" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F200" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.4999999999999953E-3</v>
+      </c>
+      <c r="G200" s="4"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>33494</v>
       </c>
@@ -3742,8 +5060,13 @@
       <c r="E201" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F201" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G201" s="4"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>33456</v>
       </c>
@@ -3756,8 +5079,13 @@
       <c r="E202" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G202" s="4"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>33358</v>
       </c>
@@ -3770,8 +5098,13 @@
       <c r="E203" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.4999999999999953E-3</v>
+      </c>
+      <c r="G203" s="4"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>33305</v>
       </c>
@@ -3784,8 +5117,13 @@
       <c r="E204" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F204" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G204" s="4"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>33270</v>
       </c>
@@ -3798,8 +5136,13 @@
       <c r="E205" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F205" s="4">
+        <f t="shared" si="4"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="G205" s="4"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>33247</v>
       </c>
@@ -3812,8 +5155,13 @@
       <c r="E206" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G206" s="4"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>33226</v>
       </c>
@@ -3826,8 +5174,13 @@
       <c r="E207" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F207" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.4999999999999883E-3</v>
+      </c>
+      <c r="G207" s="4"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>33214</v>
       </c>
@@ -3840,8 +5193,13 @@
       <c r="E208" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F208" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G208" s="4"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>33191</v>
       </c>
@@ -3854,8 +5212,13 @@
       <c r="E209" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F209" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>33175</v>
       </c>
@@ -3868,8 +5231,13 @@
       <c r="E210" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F210" s="4">
+        <f t="shared" ref="F210:F273" si="5">C210-E210</f>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G210" s="4"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>33067</v>
       </c>
@@ -3882,8 +5250,13 @@
       <c r="E211" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F211" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>32862</v>
       </c>
@@ -3896,8 +5269,13 @@
       <c r="E212" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G212" s="4"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>32818</v>
       </c>
@@ -3910,8 +5288,13 @@
       <c r="E213" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F213" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.4999999999999883E-3</v>
+      </c>
+      <c r="G213" s="4"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>32800</v>
       </c>
@@ -3924,8 +5307,13 @@
       <c r="E214" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214" s="4">
+        <f t="shared" si="5"/>
+        <v>-3.1000000000000055E-3</v>
+      </c>
+      <c r="G214" s="4"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>32716</v>
       </c>
@@ -3938,8 +5326,13 @@
       <c r="E215" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F215" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G215" s="4"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>32696</v>
       </c>
@@ -3952,8 +5345,13 @@
       <c r="E216" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F216" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G216" s="4"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>32665</v>
       </c>
@@ -3966,8 +5364,13 @@
       <c r="E217" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F217" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G217" s="4"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>32645</v>
       </c>
@@ -3980,8 +5383,13 @@
       <c r="E218" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F218" s="4">
+        <f t="shared" si="5"/>
+        <v>6.0000000000000331E-4</v>
+      </c>
+      <c r="G218" s="4"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>32563</v>
       </c>
@@ -3994,8 +5402,13 @@
       <c r="E219" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F219" s="4">
+        <f t="shared" si="5"/>
+        <v>4.4000000000000011E-3</v>
+      </c>
+      <c r="G219" s="4"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>32553</v>
       </c>
@@ -4008,8 +5421,13 @@
       <c r="E220" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F220" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8999999999999989E-3</v>
+      </c>
+      <c r="G220" s="4"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>32548</v>
       </c>
@@ -4022,8 +5440,13 @@
       <c r="E221" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F221" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2000000000000066E-3</v>
+      </c>
+      <c r="G221" s="4"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>32513</v>
       </c>
@@ -4036,8 +5459,13 @@
       <c r="E222" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F222" s="4">
+        <f t="shared" si="5"/>
+        <v>3.1999999999999945E-3</v>
+      </c>
+      <c r="G222" s="4"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>32492</v>
       </c>
@@ -4050,8 +5478,13 @@
       <c r="E223" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F223" s="4">
+        <f t="shared" si="5"/>
+        <v>3.1000000000000055E-3</v>
+      </c>
+      <c r="G223" s="4"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>32469</v>
       </c>
@@ -4064,8 +5497,13 @@
       <c r="E224" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224" s="4">
+        <f t="shared" si="5"/>
+        <v>6.0000000000000331E-4</v>
+      </c>
+      <c r="G224" s="4"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>32464</v>
       </c>
@@ -4078,8 +5516,13 @@
       <c r="E225" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F225" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8999999999999989E-3</v>
+      </c>
+      <c r="G225" s="4"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>32364</v>
       </c>
@@ -4092,8 +5535,13 @@
       <c r="E226" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F226" s="4">
+        <f t="shared" si="5"/>
+        <v>3.699999999999995E-3</v>
+      </c>
+      <c r="G226" s="4"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>32363</v>
       </c>
@@ -4106,8 +5554,13 @@
       <c r="E227" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F227" s="4">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000617E-4</v>
+      </c>
+      <c r="G227" s="4"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>32343</v>
       </c>
@@ -4120,8 +5573,13 @@
       <c r="E228" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F228" s="4">
+        <f t="shared" si="5"/>
+        <v>1.799999999999996E-3</v>
+      </c>
+      <c r="G228" s="4"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>32325</v>
       </c>
@@ -4134,8 +5592,13 @@
       <c r="E229" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F229" s="4">
+        <f t="shared" si="5"/>
+        <v>6.999999999999923E-4</v>
+      </c>
+      <c r="G229" s="4"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>32316</v>
       </c>
@@ -4148,8 +5611,13 @@
       <c r="E230" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F230" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000099E-3</v>
+      </c>
+      <c r="G230" s="4"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>32288</v>
       </c>
@@ -4162,8 +5630,13 @@
       <c r="E231" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F231" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4999999999999883E-3</v>
+      </c>
+      <c r="G231" s="4"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>32272</v>
       </c>
@@ -4176,8 +5649,13 @@
       <c r="E232" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F232" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G232" s="4"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>32232</v>
       </c>
@@ -4190,8 +5668,13 @@
       <c r="E233" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F233" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G233" s="4"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>32184</v>
       </c>
@@ -4204,8 +5687,13 @@
       <c r="E234" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F234" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.1999999999999927E-3</v>
+      </c>
+      <c r="G234" s="4"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>32170</v>
       </c>
@@ -4218,8 +5706,13 @@
       <c r="E235" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F235" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.8999999999999989E-3</v>
+      </c>
+      <c r="G235" s="4"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>32085</v>
       </c>
@@ -4232,8 +5725,13 @@
       <c r="E236" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F236" s="4">
+        <f t="shared" si="5"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="G236" s="4"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>32044</v>
       </c>
@@ -4246,8 +5744,13 @@
       <c r="E237" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F237" s="4">
+        <f t="shared" si="5"/>
+        <v>6.0000000000000331E-4</v>
+      </c>
+      <c r="G237" s="4"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>32024</v>
       </c>
@@ -4260,8 +5763,13 @@
       <c r="E238" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F238" s="4">
+        <f t="shared" si="5"/>
+        <v>3.7999999999999978E-3</v>
+      </c>
+      <c r="G238" s="4"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>32023</v>
       </c>
@@ -4274,8 +5782,13 @@
       <c r="E239" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F239" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1999999999999927E-3</v>
+      </c>
+      <c r="G239" s="4"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>32016</v>
       </c>
@@ -4288,8 +5801,13 @@
       <c r="E240" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F240" s="4">
+        <f t="shared" si="5"/>
+        <v>1.3000000000000095E-3</v>
+      </c>
+      <c r="G240" s="4"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>31960</v>
       </c>
@@ -4302,8 +5820,13 @@
       <c r="E241" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F241" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.3000000000000095E-3</v>
+      </c>
+      <c r="G241" s="4"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>31919</v>
       </c>
@@ -4316,8 +5839,13 @@
       <c r="E242" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F242" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G242" s="4"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>31897</v>
       </c>
@@ -4330,8 +5858,13 @@
       <c r="E243" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F243" s="4">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="G243" s="4"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>31782</v>
       </c>
@@ -4344,8 +5877,13 @@
       <c r="E244" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F244" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2999999999999956E-3</v>
+      </c>
+      <c r="G244" s="4"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>31645</v>
       </c>
@@ -4358,8 +5896,13 @@
       <c r="E245" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F245" s="4">
+        <f t="shared" si="5"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="G245" s="4"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>31604</v>
       </c>
@@ -4372,8 +5915,13 @@
       <c r="E246" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F246" s="4">
+        <f t="shared" si="5"/>
+        <v>-4.9999999999999906E-3</v>
+      </c>
+      <c r="G246" s="4"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>31568</v>
       </c>
@@ -4386,8 +5934,13 @@
       <c r="E247" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F247" s="4">
+        <f t="shared" si="5"/>
+        <v>6.0000000000000331E-4</v>
+      </c>
+      <c r="G247" s="4"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>31554</v>
       </c>
@@ -4400,8 +5953,13 @@
       <c r="E248" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F248" s="4">
+        <f t="shared" si="5"/>
+        <v>5.9999999999998943E-4</v>
+      </c>
+      <c r="G248" s="4"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>31523</v>
       </c>
@@ -4414,8 +5972,13 @@
       <c r="E249" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F249" s="4">
+        <f t="shared" si="5"/>
+        <v>-5.5999999999999939E-3</v>
+      </c>
+      <c r="G249" s="4"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>31504</v>
       </c>
@@ -4428,8 +5991,13 @@
       <c r="E250" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F250" s="4">
+        <f t="shared" si="5"/>
+        <v>6.0000000000000331E-4</v>
+      </c>
+      <c r="G250" s="4"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>31478</v>
       </c>
@@ -4442,8 +6010,13 @@
       <c r="E251" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F251" s="4">
+        <f t="shared" si="5"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="G251" s="4"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>31399</v>
       </c>
@@ -4456,8 +6029,13 @@
       <c r="E252" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F252" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G252" s="4"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>31296</v>
       </c>
@@ -4470,8 +6048,13 @@
       <c r="E253" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F253" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8999999999999989E-3</v>
+      </c>
+      <c r="G253" s="4"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>31280</v>
       </c>
@@ -4484,8 +6067,13 @@
       <c r="E254" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F254" s="4">
+        <f t="shared" si="5"/>
+        <v>6.0000000000000331E-4</v>
+      </c>
+      <c r="G254" s="4"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>31253</v>
       </c>
@@ -4498,8 +6086,13 @@
       <c r="E255" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F255" s="4">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000617E-4</v>
+      </c>
+      <c r="G255" s="4"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>31239</v>
       </c>
@@ -4512,8 +6105,13 @@
       <c r="E256" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F256" s="4">
+        <f t="shared" si="5"/>
+        <v>-7.0000000000000617E-4</v>
+      </c>
+      <c r="G256" s="4"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>31187</v>
       </c>
@@ -4526,8 +6124,13 @@
       <c r="E257" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F257" s="4">
+        <f t="shared" si="5"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="G257" s="4"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>31162</v>
       </c>
@@ -4540,8 +6143,13 @@
       <c r="E258" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F258" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G258" s="4"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>31134</v>
       </c>
@@ -4554,8 +6162,13 @@
       <c r="E259" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F259" s="4">
+        <f t="shared" si="5"/>
+        <v>1.3000000000000095E-3</v>
+      </c>
+      <c r="G259" s="4"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>31092</v>
       </c>
@@ -4568,8 +6181,13 @@
       <c r="E260" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F260" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1999999999999927E-3</v>
+      </c>
+      <c r="G260" s="4"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>31071</v>
       </c>
@@ -4582,8 +6200,13 @@
       <c r="E261" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F261" s="4">
+        <f t="shared" si="5"/>
+        <v>1.3000000000000095E-3</v>
+      </c>
+      <c r="G261" s="4"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>31040</v>
       </c>
@@ -4596,8 +6219,13 @@
       <c r="E262" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F262" s="4">
+        <f t="shared" si="5"/>
+        <v>-3.8000000000000117E-3</v>
+      </c>
+      <c r="G262" s="4"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>31035</v>
       </c>
@@ -4610,8 +6238,13 @@
       <c r="E263" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F263" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.4999999999999883E-3</v>
+      </c>
+      <c r="G263" s="4"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>31022</v>
       </c>
@@ -4624,8 +6257,13 @@
       <c r="E264" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F264" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G264" s="4"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>31009</v>
       </c>
@@ -4638,8 +6276,13 @@
       <c r="E265" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F265" s="4">
+        <f t="shared" si="5"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="G265" s="4"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>30994</v>
       </c>
@@ -4652,8 +6295,13 @@
       <c r="E266" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F266" s="4">
+        <f t="shared" si="5"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="G266" s="4"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>30973</v>
       </c>
@@ -4666,8 +6314,13 @@
       <c r="E267" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F267" s="4">
+        <f t="shared" si="5"/>
+        <v>-4.9999999999999906E-3</v>
+      </c>
+      <c r="G267" s="4"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>30966</v>
       </c>
@@ -4680,8 +6333,13 @@
       <c r="E268" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F268" s="4">
+        <f t="shared" si="5"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="G268" s="4"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>30952</v>
       </c>
@@ -4694,8 +6352,13 @@
       <c r="E269" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F269" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G269" s="4"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>30945</v>
       </c>
@@ -4708,8 +6371,13 @@
       <c r="E270" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F270" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.5000000000000022E-3</v>
+      </c>
+      <c r="G270" s="4"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>30903</v>
       </c>
@@ -4722,8 +6390,13 @@
       <c r="E271" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F271" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G271" s="4"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>30882</v>
       </c>
@@ -4736,8 +6409,13 @@
       <c r="E272" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F272" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G272" s="4"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>30868</v>
       </c>
@@ -4750,8 +6428,13 @@
       <c r="E273" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F273" s="4">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="G273" s="4"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>30770</v>
       </c>
@@ -4764,8 +6447,13 @@
       <c r="E274" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F274" s="4">
+        <f t="shared" ref="F274:F286" si="6">C274-E274</f>
+        <v>1.1299999999999991E-2</v>
+      </c>
+      <c r="G274" s="4"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>30574</v>
       </c>
@@ -4778,8 +6466,13 @@
       <c r="E275" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F275" s="4">
+        <f t="shared" si="6"/>
+        <v>-1.2999999999999956E-3</v>
+      </c>
+      <c r="G275" s="4"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>30545</v>
       </c>
@@ -4792,8 +6485,13 @@
       <c r="E276" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F276" s="4">
+        <f t="shared" si="6"/>
+        <v>-6.0000000000000331E-4</v>
+      </c>
+      <c r="G276" s="4"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>30539</v>
       </c>
@@ -4806,8 +6504,13 @@
       <c r="E277" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F277" s="4">
+        <f t="shared" si="6"/>
+        <v>1.3000000000000095E-3</v>
+      </c>
+      <c r="G277" s="4"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>30517</v>
       </c>
@@ -4820,8 +6523,13 @@
       <c r="E278" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F278" s="4">
+        <f t="shared" si="6"/>
+        <v>1.799999999999996E-3</v>
+      </c>
+      <c r="G278" s="4"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>30511</v>
       </c>
@@ -4834,8 +6542,13 @@
       <c r="E279" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F279" s="4">
+        <f t="shared" si="6"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G279" s="4"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>30491</v>
       </c>
@@ -4848,8 +6561,13 @@
       <c r="E280" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F280" s="4">
+        <f t="shared" si="6"/>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="G280" s="4"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>30461</v>
       </c>
@@ -4862,8 +6580,13 @@
       <c r="E281" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F281" s="4">
+        <f t="shared" si="6"/>
+        <v>1.2999999999999956E-3</v>
+      </c>
+      <c r="G281" s="4"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>30406</v>
       </c>
@@ -4876,8 +6599,13 @@
       <c r="E282" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F282" s="4">
+        <f t="shared" si="6"/>
+        <v>1.1999999999999927E-3</v>
+      </c>
+      <c r="G282" s="4"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>30299</v>
       </c>
@@ -4890,8 +6618,13 @@
       <c r="E283" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F283" s="4">
+        <f t="shared" si="6"/>
+        <v>-4.9999999999999906E-3</v>
+      </c>
+      <c r="G283" s="4"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>30274</v>
       </c>
@@ -4904,8 +6637,13 @@
       <c r="E284" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F284" s="4">
+        <f t="shared" si="6"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="G284" s="4"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>30231</v>
       </c>
@@ -4918,8 +6656,13 @@
       <c r="E285" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F285" s="4">
+        <f t="shared" si="6"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="G285" s="4"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>30225</v>
       </c>
@@ -4932,6 +6675,11 @@
       <c r="E286" t="s">
         <v>78</v>
       </c>
+      <c r="F286" s="4">
+        <f t="shared" si="6"/>
+        <v>-2.4999999999999883E-3</v>
+      </c>
+      <c r="G286" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/fomc_data.xlsx
+++ b/data/fomc_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackkidney/Documents/fedwatch/fedtool/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06C555D-007C-1547-8A2E-24CB65359315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C369DEF-5FB4-0F4A-88B6-C7186BCED8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <dimension ref="A1:G286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" ref="G82:G145" si="3">C82-D82</f>
+        <f t="shared" ref="G82:G138" si="3">C82-D82</f>
         <v>0</v>
       </c>
     </row>

--- a/data/fomc_data.xlsx
+++ b/data/fomc_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackkidney/Documents/fedwatch/fedtool/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C369DEF-5FB4-0F4A-88B6-C7186BCED8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B51F6C6-737E-6047-ACA1-2C7E541060D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15240" yWindow="500" windowWidth="10000" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -664,7 +664,7 @@
   <dimension ref="A1:G286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/fomc_data.xlsx
+++ b/data/fomc_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackkidney/Documents/fedwatch/fedtool/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B51F6C6-737E-6047-ACA1-2C7E541060D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3CCA23-A395-D44A-82EF-3D9F61DCED02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="500" windowWidth="10000" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9620" yWindow="500" windowWidth="15620" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -664,7 +664,7 @@
   <dimension ref="A1:G286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
